--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/Demand_Calc_ResultsTable.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/Demand_Calc_ResultsTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\SA_MunicipalDemand_Calc_County\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\WeberBasinVulnerability\WeberBasinVulnerability\1 - Scenario Processing\Annual Service Area Demand Scenarios\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF4A64-8AD2-4A0D-88EA-39C12137268E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0CE2A8-231A-4BCD-87A2-AD41A5C33D26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56FC8D52-3251-44E3-806F-0746BD8A8D23}"/>
   </bookViews>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC875508-3175-4E1E-A9A9-BF833EB896D6}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
